--- a/N_results.xlsx
+++ b/N_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>objective_value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>num_invested_nodes</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>total_pv_production</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>total_wind_production</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>total_conventional_production</t>
         </is>
@@ -464,18 +469,21 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>-15736676551.33602</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>-10273276958.93214</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>[18]</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>250</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>150</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -502,18 +513,21 @@
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>-5954240881.272476</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>[15, 18]</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>500.0000000000001</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>300</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -521,18 +535,21 @@
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>-3342738731.124275</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>[13, 15, 18]</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>750.0000000000001</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>450</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -540,18 +557,21 @@
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>-2241816623.652061</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>[10, 13, 15, 18]</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>600</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -559,18 +579,21 @@
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>-1395771170.071349</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>[10, 13, 14, 15, 18]</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1250</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>750</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -578,18 +601,21 @@
       <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>-646304895.5974975</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>[10, 13, 14, 15, 18, 19]</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1500</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>900</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -597,18 +623,21 @@
       <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>-77403214.921242</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>[3, 10, 13, 14, 15, 18, 19]</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1750</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1050</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,18 +645,21 @@
       <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>306678650.8353324</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>[3, 9, 10, 13, 14, 15, 18, 19]</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>2000</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1200</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -635,18 +667,21 @@
       <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>555510371.9183303</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>[3, 4, 9, 10, 13, 14, 15, 18, 19]</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>2250</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>1350</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,18 +689,21 @@
       <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>634743812.5718179</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>[1, 3, 9, 10, 13, 14, 15, 16, 18, 19]</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>2500</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>1320.535233996773</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -673,18 +711,21 @@
       <c r="A13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2747.326526764611</v>
+      <c r="B13" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E13" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -692,18 +733,21 @@
       <c r="A14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2747.326526764611</v>
+      <c r="B14" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E14" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -711,18 +755,21 @@
       <c r="A15" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2747.326526764611</v>
+      <c r="B15" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E15" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -730,18 +777,21 @@
       <c r="A16" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2747.326526764611</v>
+      <c r="B16" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E16" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,18 +799,21 @@
       <c r="A17" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2747.326526764611</v>
+      <c r="B17" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E17" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -768,18 +821,21 @@
       <c r="A18" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2747.326526764611</v>
+      <c r="B18" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E18" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -787,18 +843,21 @@
       <c r="A19" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2747.326526764611</v>
+      <c r="B19" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E19" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -806,18 +865,21 @@
       <c r="A20" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2747.326526764611</v>
+      <c r="B20" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E20" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -825,18 +887,21 @@
       <c r="A21" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2747.326526764611</v>
+      <c r="B21" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E21" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -844,18 +909,21 @@
       <c r="A22" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2747.326526764611</v>
+      <c r="B22" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E22" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -863,18 +931,21 @@
       <c r="A23" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2747.326526764611</v>
+      <c r="B23" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D23" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E23" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -882,18 +953,21 @@
       <c r="A24" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2747.326526764611</v>
+      <c r="B24" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D24" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E24" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,18 +975,21 @@
       <c r="A25" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2747.326526764611</v>
+      <c r="B25" t="n">
+        <v>684440271.8768852</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 6, 9, 10, 13, 14, 15, 18, 19]</t>
+        </is>
       </c>
       <c r="D25" t="n">
-        <v>1251.612422167613</v>
+        <v>2747.326526764611</v>
       </c>
       <c r="E25" t="n">
+        <v>1251.612422167613</v>
+      </c>
+      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
